--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,95 +473,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Software AI Engineer</t>
+          <t>Data Scientist / Data Science Specialist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Southern New Hampshire University</t>
+          <t>Adidev Technologies Inc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Copilot, S3, Glue, Athena, CI/CD, GitHub Actions, Terraform, Git, PostgreSQL</t>
+          <t>Data Scientist, TensorFlow, PyTorch, AWS SageMaker, S3, EC2, MLflow, Jenkins, Git, Databricks</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=eaf894cd20490ad2</t>
+          <t>https://www.indeed.com/viewjob?jk=91cd87d39ed00187</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Software AI Engineer - Fullstack</t>
+          <t>Junior Software Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Southern New Hampshire University</t>
+          <t>MetLife</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Whippany, NJ, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, LLaMA, Copilot, S3, CI/CD, GitHub Actions, Terraform, Git, PostgreSQL</t>
+          <t>LangChain, RAG, Copilot, Hugging Face, Prompt Engineering, TensorFlow, Docker, Kubernetes, CI/CD, Git</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=04eec46adb7daf9d</t>
+          <t>https://www.indeed.com/viewjob?jk=27a8a2a71007930a</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Senior Machine Learning Engineer, Risk Modeling</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abbott</t>
+          <t>Block</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pleasanton, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, S3, Glue, Redshift, Databricks, Redshift, PySpark, Kafka, Python</t>
+          <t>Machine Learning Engineer, TensorFlow, PyTorch, XGBoost, Keras, MLflow, CI/CD, Snowflake, PySpark, MySQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=44aa0d70d66a42cd</t>
+          <t>https://www.indeed.com/viewjob?jk=2749ecb9f8a0dc09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Machine Learning Engineer, Risk Modeling</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LMI</t>
+          <t>Block</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Colorado Springs, CO, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Git, PostgreSQL, MySQL, MongoDB, NoSQL, Tableau, Power BI, Python</t>
+          <t>Machine Learning Engineer, TensorFlow, PyTorch, XGBoost, Keras, MLflow, CI/CD, Snowflake, PySpark, MySQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,77 +606,462 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=62eecaeeda0ea761</t>
+          <t>https://www.indeed.com/viewjob?jk=43f57fcb65df08a3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Software Engineer – Identity Shield &amp; Consumer Fraud - Shield</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ally Financial</t>
+          <t>Adidev Technologies Inc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>15.6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, CI/CD, Terraform, Git, PostgreSQL, NoSQL, Python, SQL, R</t>
+          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Keras, spaCy, Kubernetes, PostgreSQL, MongoDB, Tableau</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1496bf62962757c0</t>
+          <t>https://www.indeed.com/viewjob?jk=6fb5d815a109de6d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Software Engineering MTS</t>
+          <t>Data Science Specialist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Adidev Technologies Inc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Keras, spaCy, Kubernetes, PostgreSQL, MongoDB, Tableau</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7686f3290697986d</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DATA SCIENTIST</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adidev Technologies Inc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Keras, spaCy, Kubernetes, PostgreSQL, MongoDB, Tableau</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2b438984f6dd9115</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Software Engineer - Full Stack</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NTT DATA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MO, US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Git, PostgreSQL, MongoDB, NoSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e06ca5d0cbf6168e</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dev Ops and Cloud Engineer, Associate</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BlackRock</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Atlanta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Copilot, Docker, Kubernetes, AKS, CI/CD, GitHub Actions, Terraform, Git, Python, R</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e73c18f9abaa746c</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Data Engineer III</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grainger</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Git, Snowflake, Kafka, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ca71348ca74ae1ce</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>McKesson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Terraform, Git, Kafka, PostgreSQL, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a1ace665b571d0bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sr Software Engineer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>McKesson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Terraform, Git, Kafka, PostgreSQL, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=75d8c3155721fa1b</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Data Platform Engineer II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Best Egg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Wilmington, DE, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RAG, S3, Data Lake, Docker, CI/CD, Git, Snowflake, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1ff6ad916136713c</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sr. Quality Engineer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>McKesson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>11.1</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RAG, Prompt Engineering, CI/CD, Jenkins, GitHub Actions, Git, R, Java, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=872c45b8ca00b9d0</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, GitHub Actions, Git, Kafka, PostgreSQL, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=484a7d4e140ae699</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - AI Research Clusters</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Cortex, Docker, Kubernetes, Git, Python, R, Java, Optimization</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e62aae990e8e1e0d</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI/ML Engineer SME (CMS)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>General Dynamics Information Technology</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>IN, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, Git, Snowflake, Databricks, Tableau, Python, SQL, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fdbbee24455a9dd6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI and ML HPC Cluster Engineer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, TensorFlow, PyTorch, Docker, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=608e4534825362a1</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,60 +473,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Scientist / Data Science Specialist</t>
+          <t>Machine Learning Engineer: ML Infra and Model Optimization</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adidev Technologies Inc</t>
+          <t>GENIES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>13.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, TensorFlow, PyTorch, AWS SageMaker, S3, EC2, MLflow, Jenkins, Git, Databricks</t>
+          <t>Machine Learning Engineer, RAG, EC2, FastAPI, Docker, Kubernetes, CI/CD, Git, Python, R</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=91cd87d39ed00187</t>
+          <t>https://www.indeed.com/viewjob?jk=8f207a3617ebf2e2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Junior Software Engineer</t>
+          <t>Backend Engineer Intern (LLM)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MetLife</t>
+          <t>GENIES</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Whippany, NJ, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LangChain, RAG, Copilot, Hugging Face, Prompt Engineering, TensorFlow, Docker, Kubernetes, CI/CD, Git</t>
+          <t>AI Engineer, RAG, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=27a8a2a71007930a</t>
+          <t>https://www.indeed.com/viewjob?jk=c0fa41739b22a607</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer, Risk Modeling</t>
+          <t>AI Software Engineer (contract)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>Hilton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, TensorFlow, PyTorch, XGBoost, Keras, MLflow, CI/CD, Snowflake, PySpark, MySQL</t>
+          <t>Generative AI, LangChain, S3, FastAPI, CI/CD, Jenkins, Git, Python, SQL, R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2749ecb9f8a0dc09</t>
+          <t>https://www.indeed.com/viewjob?jk=8576dc30077a3e83</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer, Risk Modeling</t>
+          <t>Technical Architect - Databricks</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>Stitch Consulting Services, Inc.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15.6</v>
+        <v>11.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, TensorFlow, PyTorch, XGBoost, Keras, MLflow, CI/CD, Snowflake, PySpark, MySQL</t>
+          <t>RAG, MLflow, CI/CD, Terraform, Git, Databricks, PySpark, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,462 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=43f57fcb65df08a3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Data Science</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Adidev Technologies Inc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>San Francisco, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Keras, spaCy, Kubernetes, PostgreSQL, MongoDB, Tableau</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6fb5d815a109de6d</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Data Science Specialist</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Adidev Technologies Inc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>New York, NY, US USA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Keras, spaCy, Kubernetes, PostgreSQL, MongoDB, Tableau</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=7686f3290697986d</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DATA SCIENTIST</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Adidev Technologies Inc</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Data Scientist, TensorFlow, PyTorch, XGBoost, Keras, spaCy, Kubernetes, PostgreSQL, MongoDB, Tableau</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=2b438984f6dd9115</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Software Engineer - Full Stack</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NTT DATA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MO, US USA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Git, PostgreSQL, MongoDB, NoSQL, SQL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e06ca5d0cbf6168e</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dev Ops and Cloud Engineer, Associate</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BlackRock</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Atlanta, GA, US USA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Copilot, Docker, Kubernetes, AKS, CI/CD, GitHub Actions, Terraform, Git, Python, R</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e73c18f9abaa746c</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Data Engineer III</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Grainger</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Chicago, IL, US USA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Docker, Kubernetes, CI/CD, Git, Snowflake, Kafka, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ca71348ca74ae1ce</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>McKesson</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Columbus, OH, US USA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>RAG, CI/CD, Terraform, Git, Kafka, PostgreSQL, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a1ace665b571d0bb</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sr Software Engineer</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>McKesson</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Columbus, OH, US USA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>RAG, CI/CD, Terraform, Git, Kafka, PostgreSQL, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=75d8c3155721fa1b</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Data Platform Engineer II</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Best Egg</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Wilmington, DE, US USA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>RAG, S3, Data Lake, Docker, CI/CD, Git, Snowflake, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=1ff6ad916136713c</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sr. Quality Engineer</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>McKesson</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Columbus, OH, US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>RAG, CI/CD, GitHub Actions, Git, Kafka, PostgreSQL, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=484a7d4e140ae699</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer - AI Research Clusters</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>NVIDIA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Cortex, Docker, Kubernetes, Git, Python, R, Java, Optimization</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e62aae990e8e1e0d</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI/ML Engineer SME (CMS)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General Dynamics Information Technology</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>IN, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Data Scientist, Generative AI, Git, Snowflake, Databricks, Tableau, Python, SQL, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=fdbbee24455a9dd6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI and ML HPC Cluster Engineer</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>NVIDIA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, TensorFlow, PyTorch, Docker, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=608e4534825362a1</t>
+          <t>https://www.indeed.com/viewjob?jk=d2439e6093084e24</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer: ML Infra and Model Optimization</t>
+          <t>AI Engineer II - Blue Ring</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GENIES</t>
+          <t>Blue Origin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.3</v>
+        <v>16.7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, EC2, FastAPI, Docker, Kubernetes, CI/CD, Git, Python, R</t>
+          <t>AI Engineer, RAG, FAISS, Pinecone, TensorFlow, PyTorch, Kinesis, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8f207a3617ebf2e2</t>
+          <t>https://www.indeed.com/viewjob?jk=ed2387d63f350d09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Backend Engineer Intern (LLM)</t>
+          <t>AI Engineer III - Blue Ring</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GENIES</t>
+          <t>Blue Origin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Prompt Engineering, Docker, Kubernetes, CI/CD, Git, Python, R, Java</t>
+          <t>AI Engineer, RAG, TensorFlow, PyTorch, Kinesis, Docker, Kubernetes, CI/CD, Databricks, Kafka</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c0fa41739b22a607</t>
+          <t>https://www.indeed.com/viewjob?jk=282fd09ebf907b50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI Software Engineer (contract)</t>
+          <t>AI Commercial &amp; ML Ops Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hilton</t>
+          <t>MGM Resorts International</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Las Vegas, NV, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, S3, FastAPI, CI/CD, Jenkins, Git, Python, SQL, R</t>
+          <t>Data Scientist, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, CI/CD, Git, Databricks, PySpark</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,42 +571,112 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8576dc30077a3e83</t>
+          <t>https://www.indeed.com/viewjob?jk=1d1ac103ab878235</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Technical Architect - Databricks</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stitch Consulting Services, Inc.</t>
+          <t>American Academy of Orthopaedic Surgeons</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Rosemont, IL, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RAG, Synapse, Dataflow, CI/CD, Terraform, Git, Snowflake, PySpark, SQL, R</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c11ce56e07f4ef5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Huntington Bank</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Detroit, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>11.1</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RAG, MLflow, CI/CD, Terraform, Git, Databricks, PySpark, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, TensorFlow, AWS SageMaker, NoSQL, Python, SQL, R, Scala, Bayesian</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=d2439e6093084e24</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=05207a6563aa981a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eCapital</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, Git, PostgreSQL, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=98e272ab19ecdfca</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI Engineer II - Blue Ring</t>
+          <t>AI/ML Engineer (Mid-Level)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blue Origin</t>
+          <t>OnPoint Consulting, Inc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Bethesda, MD, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.7</v>
+        <v>13.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, FAISS, Pinecone, TensorFlow, PyTorch, Kinesis, Docker, Kubernetes, CI/CD</t>
+          <t>Data Scientist, Copilot, TensorFlow, PyTorch, Azure ML, Synapse, Data Lake, CI/CD, Git, Python</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,67 +501,67 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ed2387d63f350d09</t>
+          <t>https://www.indeed.com/viewjob?jk=ecd65ee8e23a06be</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI Engineer III - Blue Ring</t>
+          <t>AI Applications Development Intern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blue Origin</t>
+          <t>Zoox</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Foster City, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, TensorFlow, PyTorch, Kinesis, Docker, Kubernetes, CI/CD, Databricks, Kafka</t>
+          <t>LangChain, RAG, LLaMA, Copilot, Prompt Engineering, Git, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=282fd09ebf907b50</t>
+          <t>https://www.indeed.com/viewjob?jk=2d2402acc3891444</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI Commercial &amp; ML Ops Engineer</t>
+          <t>Midlevel Software Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MGM Resorts International</t>
+          <t>Liveworld</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, CI/CD, Git, Databricks, PySpark</t>
+          <t>RAG, TensorFlow, PyTorch, Git, PostgreSQL, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1d1ac103ab878235</t>
+          <t>https://www.indeed.com/viewjob?jk=7dffdc68dbca47db</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>American Academy of Orthopaedic Surgeons</t>
+          <t>Driven Brands</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rosemont, IL, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Synapse, Dataflow, CI/CD, Terraform, Git, Snowflake, PySpark, SQL, R</t>
+          <t>BigQuery, CI/CD, Snowflake, BigQuery, MySQL, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,77 +606,42 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c11ce56e07f4ef5b</t>
+          <t>https://www.indeed.com/viewjob?jk=039063e25cce7591</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Data Scientist - Quantitative Trading</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Huntington Bank</t>
+          <t>TotalEnergies</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Detroit, MI, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, AWS SageMaker, NoSQL, Python, SQL, R, Scala, Bayesian</t>
+          <t>Data Scientist, Docker, CI/CD, MongoDB, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=05207a6563aa981a</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>eCapital</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>US USA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, Docker, Kubernetes, Git, PostgreSQL, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=98e272ab19ecdfca</t>
+          <t>https://www.indeed.com/viewjob?jk=51838a211f043506</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI/ML Engineer (Mid-Level)</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OnPoint Consulting, Inc</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bethesda, MD, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.3</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, Copilot, TensorFlow, PyTorch, Azure ML, Synapse, Data Lake, CI/CD, Git, Python</t>
+          <t>RAG, Glue, Redshift, BigQuery, Synapse, Git, Snowflake, Databricks, BigQuery, Redshift</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ecd65ee8e23a06be</t>
+          <t>https://www.indeed.com/viewjob?jk=8ed48e228bf802be</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI Applications Development Intern</t>
+          <t>Software Engineer - Database Integrations</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zoox</t>
+          <t>clickhouse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Foster City, CA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LangChain, RAG, LLaMA, Copilot, Prompt Engineering, Git, Python, SQL, R, Java</t>
+          <t>RAG, BigQuery, Data Lake, Kubernetes, Snowflake, BigQuery, Kafka, MySQL, MongoDB, SQL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2d2402acc3891444</t>
+          <t>https://www.indeed.com/viewjob?jk=77453e14526da77d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Midlevel Software Engineer</t>
+          <t>AI &amp; Data Consultant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liveworld</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Git, PostgreSQL, Python, SQL, R, Java, Scala</t>
+          <t>Data Scientist, LangChain, RAG, CI/CD, Git, Tableau, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,24 +571,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7dffdc68dbca47db</t>
+          <t>https://www.indeed.com/viewjob?jk=a97fe7cbba5b42a5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Sr. Business Intelligence Engineer - Digital Experiences &amp; Capabilities</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Driven Brands</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,52 +596,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BigQuery, CI/CD, Snowflake, BigQuery, MySQL, SQL, R, Scala, Optimization</t>
+          <t>RAG, Git, Hadoop, Tableau, Power BI, R, Scala, Optimization, A/B Testing</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=039063e25cce7591</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Data Scientist - Quantitative Trading</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TotalEnergies</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Houston, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Data Scientist, Docker, CI/CD, MongoDB, Python, SQL, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=51838a211f043506</t>
+          <t>https://www.indeed.com/viewjob?jk=3df7a7234ca3a31b</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Ai/ML Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Johnson Controls</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -491,42 +491,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAG, Glue, Redshift, BigQuery, Synapse, Git, Snowflake, Databricks, BigQuery, Redshift</t>
+          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, LLaMA, FAISS, PyTorch, Azure ML, Docker</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8ed48e228bf802be</t>
+          <t>https://www.indeed.com/viewjob?jk=1a93129ac0f94b09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Software Engineer - Database Integrations</t>
+          <t>Backend Software Engineer (hybrid)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>clickhouse</t>
+          <t>Johnson Controls</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Milwaukee, WI, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Data Lake, Kubernetes, Snowflake, BigQuery, Kafka, MySQL, MongoDB, SQL</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, MySQL, MongoDB</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,24 +536,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=77453e14526da77d</t>
+          <t>https://www.indeed.com/viewjob?jk=f5227f1e48c9e496</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI &amp; Data Consultant</t>
+          <t>Data Scientist - Kaggle Grandmaster</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -561,52 +561,122 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, CI/CD, Git, Tableau, Power BI, Python, SQL, R</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a97fe7cbba5b42a5</t>
+          <t>https://www.indeed.com/viewjob?jk=a7c00bc5a4960085</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sr. Business Intelligence Engineer - Digital Experiences &amp; Capabilities</t>
+          <t>Application Development Intern - Artificial Intelligence</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Copilot, TensorFlow, Keras, NLTK, Git, Kafka, MongoDB, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=572965e66b126cf4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ascension</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Jenkins, Git, MongoDB, NoSQL, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=11c257b267f7ca14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Application Development Intern - Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RAG, Git, Hadoop, Tableau, Power BI, R, Scala, Optimization, A/B Testing</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TensorFlow, Keras, NLTK, Git, Kafka, MongoDB, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=3df7a7234ca3a31b</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b3168e2727d0f09d</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ai/ML Engineer</t>
+          <t>Data Scientist Associate - Payments Data &amp; Analytics</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johnson Controls</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, LLaMA, FAISS, PyTorch, Azure ML, Docker</t>
+          <t>Data Scientist, Generative AI, RAG, Databricks, Tableau, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1a93129ac0f94b09</t>
+          <t>https://www.indeed.com/viewjob?jk=88e65ed63acca9c3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Backend Software Engineer (hybrid)</t>
+          <t>DATA SCIENTIST - SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johnson Controls</t>
+          <t>The Home Depot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Milwaukee, WI, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, MySQL, MongoDB</t>
+          <t>Data Scientist, RAG, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,147 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f5227f1e48c9e496</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Data Scientist - Kaggle Grandmaster</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>YO IT CONSULTING</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a7c00bc5a4960085</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Application Development Intern - Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Copilot, TensorFlow, Keras, NLTK, Git, Kafka, MongoDB, Python, R, Java</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=572965e66b126cf4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ascension</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RAG, CI/CD, Jenkins, Git, MongoDB, NoSQL, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=11c257b267f7ca14</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Application Development Intern - Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TensorFlow, Keras, NLTK, Git, Kafka, MongoDB, Python, R, Java</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=b3168e2727d0f09d</t>
+          <t>https://www.indeed.com/viewjob?jk=cef5a66a07b4ad4f</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,70 +473,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Scientist Associate - Payments Data &amp; Analytics</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JPMorganChase</t>
+          <t>HCA Healthcare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Nashville, TN, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Databricks, Tableau, Python, SQL, R, Scala</t>
+          <t>RAG, Copilot, Docker, Kubernetes, AKS, Git, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=88e65ed63acca9c3</t>
+          <t>https://www.indeed.com/viewjob?jk=7055f93be6329f9d</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DATA SCIENTIST - SUPPLY CHAIN</t>
+          <t>Analytics Developer 3 - HEDIS Quality</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Home Depot</t>
+          <t>Baylor Scott &amp; White Health</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
+          <t>Data Scientist, RAG, Cortex, Snowflake, Databricks, Power BI, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cef5a66a07b4ad4f</t>
+          <t>https://www.indeed.com/viewjob?jk=49c56062f945cbd6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forvia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Auburn Hills, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Docker, Kubernetes, CI/CD, Terraform, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=711075e72263a26e</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forvia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Auburn Hills, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=0761c4262d5d60ff</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-21.xlsx
+++ b/daily_matches/job_matches_2026-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Sr Data Scientist (Remote)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HCA Healthcare</t>
+          <t>First American</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nashville, TN, US USA</t>
+          <t>Santa Rosa, CA, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Docker, Kubernetes, AKS, Git, Python, SQL, R, Scala</t>
+          <t>Data Scientist, RAG, MLflow, Python, SQL, R, Scala, Optimization, A/B Testing</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,112 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7055f93be6329f9d</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Analytics Developer 3 - HEDIS Quality</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Baylor Scott &amp; White Health</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Cortex, Snowflake, Databricks, Power BI, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=49c56062f945cbd6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Forvia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Auburn Hills, MI, US USA</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Docker, Kubernetes, CI/CD, Terraform, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=711075e72263a26e</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Forvia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Auburn Hills, MI, US USA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=0761c4262d5d60ff</t>
+          <t>https://www.indeed.com/viewjob?jk=7152380fec2fea5b</t>
         </is>
       </c>
     </row>
